--- a/data/categories.xlsx
+++ b/data/categories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Breakfast</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dinner</t>
         </is>
       </c>
     </row>

--- a/data/categories.xlsx
+++ b/data/categories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,11 @@
           <t>Category</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Subcategory</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,32 +451,21 @@
           <t>Food</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Transport</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Breakfast</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Lunch</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Dinner</t>
+          <t>Flat</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cylinder</t>
         </is>
       </c>
     </row>
